--- a/SENSITIVITY ANALYSIS/Impact of sample size/Email.xlsx
+++ b/SENSITIVITY ANALYSIS/Impact of sample size/Email.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d9264860a0814b51/Research/SPL systems/VARCOP/SENSITIVITY ANALYSIS/Impact of sample size/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAF10587-257F-0747-99CE-759E51E28ABC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{CAF10587-257F-0747-99CE-759E51E28ABC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A8477627-B653-7E41-8224-678E5E6CBEA7}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="4580" windowWidth="26440" windowHeight="15440" xr2:uid="{47214E42-F486-F34B-B1A2-262E51AF4457}"/>
+    <workbookView xWindow="2360" yWindow="1120" windowWidth="26440" windowHeight="15440" xr2:uid="{47214E42-F486-F34B-B1A2-262E51AF4457}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>K_WISE</t>
   </si>
@@ -72,12 +72,6 @@
     <t>#Bugs</t>
   </si>
   <si>
-    <t>VARCOP_ENABLE_BUGGY_PC_DETECTION:RANK</t>
-  </si>
-  <si>
-    <t>VARCOP_ENABLE_BUGGY_PC_DETECTION:EXAM</t>
-  </si>
-  <si>
     <t>VARCOP:SPACE</t>
   </si>
   <si>
@@ -88,6 +82,15 @@
   </si>
   <si>
     <t>SBFL:SPACE</t>
+  </si>
+  <si>
+    <t>#products/case</t>
+  </si>
+  <si>
+    <t>VARCOP_ENABLE_SUSPICIOUS_STM_ISOLATION:RANK</t>
+  </si>
+  <si>
+    <t>VARCOP_ENABLE_SUSPICIOUS_STM_ISOLATION:EXAM</t>
   </si>
 </sst>
 </file>
@@ -131,10 +134,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,576 +455,633 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4249E8D7-B863-0447-8D20-08243B16B196}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>15</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>6.5625</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>2.656882591093118</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>24.3125</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>5.75</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>2.327935222672064</v>
       </c>
-      <c r="I2" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="J2" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>15</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>5.3125</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>2.15080971659919</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>24.3125</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>3.25</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>1.31578947368421</v>
       </c>
-      <c r="I3" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="J3" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>15</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>5.0625</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>2.0495951417004048</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>24.3125</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>2.625</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>1.0627530364372471</v>
       </c>
-      <c r="I4" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="J4" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>15</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>6.5625</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>2.656882591093118</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>24.3125</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>5.75</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>2.327935222672064</v>
       </c>
-      <c r="I5" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="J5" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>15</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>5.1875</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>2.1002024291497978</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>24.3125</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>3.125</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>1.265182186234818</v>
       </c>
-      <c r="I6" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="J6" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>1.214574898785425</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>41.4375</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>6.9375</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>2.8087044534412962</v>
       </c>
-      <c r="I7" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="J7" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1">
         <v>2.75</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>1.1133603238866401</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>41.4375</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>3.375</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>1.366396761133603</v>
       </c>
-      <c r="I8" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="J8" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="C9">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>0.80971659919028327</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>41.4375</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>2.1875</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>0.88562753036437236</v>
       </c>
-      <c r="I9" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="J9" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1">
         <v>4.6875</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>1.8977732793522271</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>41.4375</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>6.9375</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>2.8087044534412962</v>
       </c>
-      <c r="I10" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="J10" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1">
         <v>3.5625</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>1.4423076923076921</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>41.4375</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>3.25</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>1.31578947368421</v>
       </c>
-      <c r="I11" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="J11" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="C12">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1">
         <v>3</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>1.214574898785425</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>43.375</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>11.6875</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>4.7317813765182182</v>
       </c>
-      <c r="I12" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="J12" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="C13">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1">
         <v>3.625</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>1.467611336032389</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>43.375</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>6.75</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>2.732793522267206</v>
       </c>
-      <c r="I13" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="J13" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="C14">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1">
         <v>2.375</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>0.96153846153846145</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>43.375</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>4.375</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>1.7712550607287449</v>
       </c>
-      <c r="I14" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="J14" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="C15">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1">
         <v>4.9375</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>1.998987854251012</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>43.375</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>11.6875</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>4.7317813765182182</v>
       </c>
-      <c r="I15" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="J15" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="C16">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1">
         <v>3.9375</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>1.5941295546558709</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>43.375</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>6.625</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>2.6821862348178138</v>
       </c>
-      <c r="I16" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="J16" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1">
         <v>2.4375</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>0.98684210526315819</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>45.25</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>7.75</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>3.1376518218623488</v>
       </c>
-      <c r="I17" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+      <c r="J17" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" t="s">
         <v>3</v>
       </c>
-      <c r="C18">
-        <v>16</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1">
         <v>2.8125</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>1.1386639676113359</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>45.25</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>2.125</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>0.86032388663967607</v>
       </c>
-      <c r="I18" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="J18" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="C19">
-        <v>16</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1">
         <v>2.0625</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>0.83502024291497978</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>45.25</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>2.0625</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>0.83502024291497945</v>
       </c>
-      <c r="I19" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+      <c r="J19" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" t="s">
         <v>5</v>
       </c>
-      <c r="C20">
-        <v>16</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20" s="1">
         <v>5</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>2.024291497975709</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>45.25</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>7.75</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>3.1376518218623488</v>
       </c>
-      <c r="I20" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+      <c r="J20" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" t="s">
         <v>6</v>
       </c>
-      <c r="C21">
-        <v>16</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="E21" s="1">
         <v>4.1875</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>1.6953441295546561</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>45.25</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>2.125</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>0.86032388663967607</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>247</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>